--- a/artefatos/Burndown Sprint 2.xlsx
+++ b/artefatos/Burndown Sprint 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thale\Desktop\API\sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FB267C-F1D1-4E61-813C-8BF98CFAE9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28279E8-A75F-4F7A-851C-5D6DE3E201FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="132" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -281,16 +281,16 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,67 +451,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>87</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.65</c:v>
+                  <c:v>68.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.300000000000011</c:v>
+                  <c:v>64.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.950000000000017</c:v>
+                  <c:v>61.20000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69.600000000000023</c:v>
+                  <c:v>57.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.250000000000028</c:v>
+                  <c:v>54.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.900000000000027</c:v>
+                  <c:v>50.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.550000000000026</c:v>
+                  <c:v>46.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.200000000000024</c:v>
+                  <c:v>43.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.850000000000023</c:v>
+                  <c:v>39.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.500000000000021</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.15000000000002</c:v>
+                  <c:v>32.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.800000000000018</c:v>
+                  <c:v>28.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.450000000000017</c:v>
+                  <c:v>25.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26.100000000000016</c:v>
+                  <c:v>21.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.750000000000014</c:v>
+                  <c:v>17.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.400000000000013</c:v>
+                  <c:v>14.399999999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.050000000000013</c:v>
+                  <c:v>10.799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.7000000000000135</c:v>
+                  <c:v>7.199999999999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.3500000000000139</c:v>
+                  <c:v>3.5999999999999939</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4210854715202004E-14</c:v>
+                  <c:v>-6.2172489379008766E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -616,46 +616,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>87</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>20</c:v>
@@ -670,7 +670,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:N1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="E1" s="2">
         <f ca="1">TODAY()</f>
-        <v>44476</v>
+        <v>44477</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C5" s="8">
         <f>SUM(J29:J1007)</f>
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" ref="D5:D25" si="0">SUMIF($K$29:$K$1007,B5,$J$29:$J$1007)</f>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E5" s="6">
         <f>C5-D5</f>
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" ref="C6:C25" si="2">C5-$C$5/($B$2-1)</f>
-        <v>82.65</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E25" ca="1" si="3">IF(B6&lt;=$E$1,E5-D6,)</f>
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="C7" s="8">
         <f t="shared" si="2"/>
-        <v>78.300000000000011</v>
+        <v>64.800000000000011</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="0"/>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="C8" s="8">
         <f t="shared" si="2"/>
-        <v>73.950000000000017</v>
+        <v>61.20000000000001</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="C9" s="8">
         <f t="shared" si="2"/>
-        <v>69.600000000000023</v>
+        <v>57.600000000000009</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="C10" s="8">
         <f t="shared" si="2"/>
-        <v>65.250000000000028</v>
+        <v>54.000000000000007</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="0"/>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="2"/>
-        <v>60.900000000000027</v>
+        <v>50.400000000000006</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="0"/>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="E11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" si="2"/>
-        <v>56.550000000000026</v>
+        <v>46.800000000000004</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="0"/>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="E12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" si="2"/>
-        <v>52.200000000000024</v>
+        <v>43.2</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="0"/>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="E13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" si="2"/>
-        <v>47.850000000000023</v>
+        <v>39.6</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="0"/>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="E14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="C15" s="8">
         <f t="shared" si="2"/>
-        <v>43.500000000000021</v>
+        <v>36</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="0"/>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="E15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="2"/>
-        <v>39.15000000000002</v>
+        <v>32.4</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="0"/>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" si="2"/>
-        <v>34.800000000000018</v>
+        <v>28.799999999999997</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="0"/>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="E17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="2"/>
-        <v>30.450000000000017</v>
+        <v>25.199999999999996</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="0"/>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="E18" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1471,11 +1471,11 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="2"/>
-        <v>26.100000000000016</v>
+        <v>21.599999999999994</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" ca="1" si="3"/>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="2"/>
-        <v>21.750000000000014</v>
+        <v>17.999999999999993</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" si="0"/>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" si="2"/>
-        <v>17.400000000000013</v>
+        <v>14.399999999999993</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="0"/>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="2"/>
-        <v>13.050000000000013</v>
+        <v>10.799999999999994</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="0"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C23" s="8">
         <f t="shared" si="2"/>
-        <v>8.7000000000000135</v>
+        <v>7.199999999999994</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="0"/>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="E23" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" si="2"/>
-        <v>4.3500000000000139</v>
+        <v>3.5999999999999939</v>
       </c>
       <c r="D24" s="8">
         <f t="shared" si="0"/>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="C25" s="8">
         <f t="shared" si="2"/>
-        <v>1.4210854715202004E-14</v>
+        <v>-6.2172489379008766E-15</v>
       </c>
       <c r="D25" s="8">
         <f t="shared" si="0"/>
@@ -1612,7 +1612,7 @@
       <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="24"/>
@@ -1627,7 +1627,7 @@
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="24"/>
@@ -1651,15 +1651,15 @@
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="9">
         <v>44459</v>
       </c>
@@ -1679,7 +1679,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="26" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="24"/>
@@ -1707,7 +1707,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="24"/>
@@ -1731,7 +1731,7 @@
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="24"/>
@@ -1755,7 +1755,7 @@
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="24"/>
@@ -1779,7 +1779,7 @@
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="24"/>
@@ -1795,7 +1795,7 @@
         <v>14</v>
       </c>
       <c r="J34" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K34" s="16">
         <v>44473</v>
@@ -1803,7 +1803,7 @@
       <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="24"/>
@@ -1827,7 +1827,7 @@
       <c r="L35" s="21"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
@@ -1841,7 +1841,7 @@
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -1855,7 +1855,7 @@
       <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
@@ -1869,7 +1869,7 @@
       <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
@@ -1883,7 +1883,7 @@
       <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
@@ -1897,7 +1897,7 @@
       <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
@@ -1911,7 +1911,7 @@
       <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
@@ -1925,7 +1925,7 @@
       <c r="L42" s="4"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
@@ -1939,7 +1939,7 @@
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
@@ -1953,7 +1953,7 @@
       <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
@@ -1967,7 +1967,7 @@
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
@@ -1981,7 +1981,7 @@
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
       <c r="D47" s="24"/>
@@ -1995,7 +1995,7 @@
       <c r="L47" s="4"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
@@ -2009,7 +2009,7 @@
       <c r="L48" s="4"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
@@ -2023,7 +2023,7 @@
       <c r="L49" s="4"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
+      <c r="A50" s="23"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
       <c r="D50" s="24"/>
@@ -2037,7 +2037,7 @@
       <c r="L50" s="4"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -2051,7 +2051,7 @@
       <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -2065,7 +2065,7 @@
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -2079,7 +2079,7 @@
       <c r="L53" s="4"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
@@ -2093,7 +2093,7 @@
       <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="24"/>
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
@@ -2107,7 +2107,7 @@
       <c r="L55" s="4"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
@@ -2121,7 +2121,7 @@
       <c r="L56" s="4"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
@@ -2135,7 +2135,7 @@
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="24"/>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
@@ -2149,7 +2149,7 @@
       <c r="L58" s="4"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
@@ -2163,7 +2163,7 @@
       <c r="L59" s="4"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
@@ -2177,7 +2177,7 @@
       <c r="L60" s="4"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
       <c r="D61" s="24"/>
@@ -2191,7 +2191,7 @@
       <c r="L61" s="4"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
@@ -2205,7 +2205,7 @@
       <c r="L62" s="4"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
@@ -2219,7 +2219,7 @@
       <c r="L63" s="4"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
+      <c r="A64" s="23"/>
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
@@ -2233,7 +2233,7 @@
       <c r="L64" s="4"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
@@ -2247,7 +2247,7 @@
       <c r="L65" s="4"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
       <c r="D66" s="24"/>
@@ -2261,7 +2261,7 @@
       <c r="L66" s="4"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
       <c r="D67" s="24"/>
@@ -15436,6 +15436,36 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A63:G63"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A65:G65"/>
     <mergeCell ref="A66:G66"/>
@@ -15447,36 +15477,6 @@
     <mergeCell ref="A59:G59"/>
     <mergeCell ref="A60:G60"/>
     <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <conditionalFormatting sqref="I29:I1007 J29:J30 J32:J1007">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -15490,18 +15490,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15619,18 +15619,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5FC91F1-A823-4F9F-90A6-265093AD8A7F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6147A5AC-6F27-4745-B125-DA6404AFC3E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6147A5AC-6F27-4745-B125-DA6404AFC3E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5FC91F1-A823-4F9F-90A6-265093AD8A7F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
